--- a/dataTest/data_test_add_staff.xlsx
+++ b/dataTest/data_test_add_staff.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SourceCode\Python\Manager-Store\dataTest\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SourceCode\Manager-Store-Test-Tool\dataTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{776B0CFA-C785-4EB4-81CA-016280CDB238}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EF630D5-C899-4814-9B12-EA188CE1BCEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="20">
   <si>
     <t>No</t>
   </si>
@@ -75,13 +75,16 @@
     <t>2002-01-01</t>
   </si>
   <si>
-    <t>asdf</t>
-  </si>
-  <si>
-    <t>Bạn thêm nhân viên thất bại</t>
-  </si>
-  <si>
     <t>Thêm nhân viên thành công</t>
+  </si>
+  <si>
+    <t>2002-01-02</t>
+  </si>
+  <si>
+    <t>2002-01-03</t>
+  </si>
+  <si>
+    <t>2002-01-04</t>
   </si>
 </sst>
 </file>
@@ -429,7 +432,7 @@
   <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -498,7 +501,7 @@
         <v>15</v>
       </c>
       <c r="J2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -509,7 +512,7 @@
         <v>9</v>
       </c>
       <c r="C3">
-        <v>923458</v>
+        <v>236</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>10</v>
@@ -527,17 +530,75 @@
         <v>12</v>
       </c>
       <c r="I3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" t="s">
         <v>16</v>
       </c>
-      <c r="J3" t="s">
-        <v>17</v>
-      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="I4" s="2"/>
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4">
+        <v>347</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="I5" s="2"/>
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5">
+        <v>736</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="I6" s="2"/>
@@ -612,9 +673,11 @@
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" xr:uid="{010F1FCC-BD01-4C68-A4CA-8C25923C7359}"/>
-    <hyperlink ref="D3" r:id="rId2" xr:uid="{8E727F89-91DE-40E1-87A5-49DF232BEB4F}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{C6C0CF4A-20BF-485E-866E-B8F3DCAFA2F2}"/>
+    <hyperlink ref="D4" r:id="rId3" xr:uid="{25EADEF9-C30A-452A-B780-93F58F010FA2}"/>
+    <hyperlink ref="D5" r:id="rId4" xr:uid="{267A055D-F9E1-46B4-A1EB-71F9781902D2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId5"/>
 </worksheet>
 </file>
--- a/dataTest/data_test_add_staff.xlsx
+++ b/dataTest/data_test_add_staff.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SourceCode\Manager-Store-Test-Tool\dataTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EF630D5-C899-4814-9B12-EA188CE1BCEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39C0D746-B56E-46FE-B142-FB38E2354185}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="48">
   <si>
     <t>No</t>
   </si>
@@ -57,9 +57,6 @@
     <t>Hieepj</t>
   </si>
   <si>
-    <t>eqwf@gmail.com</t>
-  </si>
-  <si>
     <t>Smth</t>
   </si>
   <si>
@@ -72,26 +69,116 @@
     <t>asg</t>
   </si>
   <si>
-    <t>2002-01-01</t>
-  </si>
-  <si>
     <t>Thêm nhân viên thành công</t>
   </si>
   <si>
-    <t>2002-01-02</t>
-  </si>
-  <si>
-    <t>2002-01-03</t>
-  </si>
-  <si>
-    <t>2002-01-04</t>
+    <t>Bạn thêm nhân viên thất bại</t>
+  </si>
+  <si>
+    <t>`0948266581</t>
+  </si>
+  <si>
+    <t>cuonng@gmail.com</t>
+  </si>
+  <si>
+    <t>cuonng@gasdmail.com</t>
+  </si>
+  <si>
+    <t>Chinh@123</t>
+  </si>
+  <si>
+    <t>Chinh@124</t>
+  </si>
+  <si>
+    <t>Chinh@125</t>
+  </si>
+  <si>
+    <t>Chinh@126</t>
+  </si>
+  <si>
+    <t>Chinh@127</t>
+  </si>
+  <si>
+    <t>Chinh@128</t>
+  </si>
+  <si>
+    <t>Chinh@130</t>
+  </si>
+  <si>
+    <t>Chinh@131</t>
+  </si>
+  <si>
+    <t>chinh</t>
+  </si>
+  <si>
+    <t>`0948266583</t>
+  </si>
+  <si>
+    <t>`</t>
+  </si>
+  <si>
+    <t>`0948266584</t>
+  </si>
+  <si>
+    <t>`0948266585</t>
+  </si>
+  <si>
+    <t>`0948266586</t>
+  </si>
+  <si>
+    <t>`0948266587</t>
+  </si>
+  <si>
+    <t>`0948266588</t>
+  </si>
+  <si>
+    <t>`0948266590</t>
+  </si>
+  <si>
+    <t>`1235</t>
+  </si>
+  <si>
+    <t>01-01-2002</t>
+  </si>
+  <si>
+    <t>01-01-2003</t>
+  </si>
+  <si>
+    <t>01-01-2004</t>
+  </si>
+  <si>
+    <t>01-01-2005</t>
+  </si>
+  <si>
+    <t>01-01-2006</t>
+  </si>
+  <si>
+    <t>01-01-2007</t>
+  </si>
+  <si>
+    <t>01-01-2008</t>
+  </si>
+  <si>
+    <t>01-01-2010</t>
+  </si>
+  <si>
+    <t>01-01-2011</t>
+  </si>
+  <si>
+    <t>asfasd</t>
+  </si>
+  <si>
+    <t>30-02-2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="171" formatCode="yyyy\-mm\-dd;@"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -119,6 +206,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -141,13 +234,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -432,11 +527,12 @@
   <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -454,7 +550,7 @@
         <v>6</v>
       </c>
       <c r="E1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F1" t="s">
         <v>7</v>
@@ -472,212 +568,449 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="15" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C2">
-        <v>923457</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>10</v>
+      <c r="C2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J2" t="s">
         <v>14</v>
       </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C3">
-        <v>236</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>10</v>
+      <c r="C3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="J3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C4">
-        <v>347</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="C4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="4"/>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="J4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5">
-        <v>736</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" t="s">
-        <v>14</v>
+      <c r="C5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="1"/>
+      <c r="I8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I9" s="2"/>
+      <c r="J9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A13">
         <v>12</v>
       </c>
-      <c r="H5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="I6" s="2"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="I7" s="2"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="I8" s="2"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="I9" s="2"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="I10" s="2"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="I11" s="2"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="I12" s="2"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="I13" s="2"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="I14" s="2"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="I15" s="2"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="4"/>
+      <c r="I14" s="5"/>
+    </row>
+    <row r="15" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="4"/>
+      <c r="I15" s="5"/>
+    </row>
+    <row r="16" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="4"/>
       <c r="I16" s="2"/>
     </row>
-    <row r="17" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="4"/>
       <c r="I17" s="2"/>
     </row>
-    <row r="18" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="4"/>
       <c r="I18" s="2"/>
     </row>
-    <row r="19" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C19" s="2"/>
       <c r="I19" s="2"/>
     </row>
-    <row r="20" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C20" s="2"/>
       <c r="I20" s="2"/>
     </row>
-    <row r="21" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C21" s="2"/>
       <c r="I21" s="2"/>
     </row>
-    <row r="22" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C22" s="2"/>
       <c r="I22" s="2"/>
     </row>
-    <row r="23" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C23" s="2"/>
       <c r="I23" s="2"/>
     </row>
-    <row r="24" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C24" s="2"/>
       <c r="I24" s="2"/>
     </row>
-    <row r="25" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="I25" s="2"/>
     </row>
-    <row r="26" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="I26" s="2"/>
     </row>
-    <row r="27" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
       <c r="I27" s="2"/>
     </row>
-    <row r="28" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="I28" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{010F1FCC-BD01-4C68-A4CA-8C25923C7359}"/>
-    <hyperlink ref="D3" r:id="rId2" xr:uid="{C6C0CF4A-20BF-485E-866E-B8F3DCAFA2F2}"/>
-    <hyperlink ref="D4" r:id="rId3" xr:uid="{25EADEF9-C30A-452A-B780-93F58F010FA2}"/>
-    <hyperlink ref="D5" r:id="rId4" xr:uid="{267A055D-F9E1-46B4-A1EB-71F9781902D2}"/>
+    <hyperlink ref="D11" r:id="rId1" xr:uid="{ADB62C1C-D269-4119-AC4D-04A554EFB0E6}"/>
+    <hyperlink ref="H2" r:id="rId2" xr:uid="{530C501C-8F65-4685-84E4-443FAB9DDBCF}"/>
+    <hyperlink ref="H12" r:id="rId3" xr:uid="{680D15EB-A3C5-4D30-A802-1784974E0310}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId5"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
 </worksheet>
 </file>